--- a/spreadsheets/Renekton.xlsx
+++ b/spreadsheets/Renekton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F172E4B-E3FC-45CE-8F29-01ABF5226FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88478A4B-F220-4E23-91B4-F83578DA9A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="300" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>3in1warrior</t>
   </si>
   <si>
-    <t>Use your dash to outplay his q and trade and then to get out. You get your damage off first so you should win if you're both chunked out. Avoid his passive. You can win hard at 6 if you have Executioners.</t>
-  </si>
-  <si>
     <t>For contributor, enter the name you would like to be refered to as.</t>
   </si>
   <si>
@@ -76,42 +73,21 @@
     <t>Akali</t>
   </si>
   <si>
-    <t>Bait out her shroud with your E Q aa trade and then e out of her shroud. Careful of her all in. Use R and all in while you're both full hp, you should get her ult and/or chunk her out and then you win.</t>
-  </si>
-  <si>
     <t>Camille</t>
   </si>
   <si>
-    <t xml:space="preserve">Fight for push level 1, your 2nd Q should be empowered and her passive shield cd is too long, you can use a pot lvl 1 if you need to. Your empW breaks her shield and you can cancel her E if you stun her after it hits a wall. Try to dive her with your jungler whenever you can, you can even dive her from full hp a lot of the time.
-</t>
-  </si>
-  <si>
     <t>Cho'Gath</t>
   </si>
   <si>
-    <t>You should be able to get push level 1 and outsustain him with fury Q. You win by dodging his Q or empWing him at the same time you get hit by his Q and then all-inning him. After level 4 and especially at level 6 you can look to freeze and force Cho into a long lane for a longer all-in, if he just farms with Q then he should miss cs but you can also stand between him and the wave to zone him off.</t>
-  </si>
-  <si>
     <t>Darius</t>
   </si>
   <si>
-    <t xml:space="preserve">Outplay his Q with your dash or good movement, if it hits you can't trade. If he leads with his E you should be able to win the trade. End trades with empW and dash away so he can't pull you. 
-</t>
-  </si>
-  <si>
     <t>Dr. Mundo</t>
   </si>
   <si>
-    <t>Stand behind minions to avoid cleavers, block cleavers when he throws one to kill a cannon minion. Executioner's calling is necessary at level 6, otherwise just be wary of him running you down when you don't have e and be careful of his burst with grasp and e</t>
-  </si>
-  <si>
     <t>Fiora</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't take too much free damage level 1-2. Short trades with Q, you win with empQ. Your don't need to use W unless she does, just abuse empQ. You can bait her W but activating yours and not using it.
-</t>
-  </si>
-  <si>
     <t>For socials, enter URLs for your desired links.</t>
   </si>
   <si>
@@ -124,17 +100,9 @@
     <t>https://www.twitch.tv/3in1warrior</t>
   </si>
   <si>
-    <t xml:space="preserve"> Start Dshield. Don't let him hit you with passive. Farm with Q, give up a lot of ranged creeps. Outplay his barrels. Despite what people think GP doesn't actually scale that hard, his winrate drops off harder and harder as the game goes on so don't tilt!
-</t>
-  </si>
-  <si>
     <t>Garen</t>
   </si>
   <si>
-    <t xml:space="preserve">aa Q trade in the wave, you have to aa Q fast to get it off before you get silenced. You can also activate W while your Q animation is going before you get silenced. Avoid using W or empowered Q into his W. Use R and all in from full hp if you need to.
-</t>
-  </si>
-  <si>
     <t>Gnar</t>
   </si>
   <si>
@@ -144,20 +112,12 @@
     <t>Illaoi</t>
   </si>
   <si>
-    <t xml:space="preserve">Try to outplay her early and snowball. Try to outplay her E where it's safe to, if she ever hits E you should double dash and get out of tether range. 
-</t>
-  </si>
-  <si>
     <t>Irelia</t>
   </si>
   <si>
     <t>If you don't have a social, feel free to omit it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Start trades without dashing unless you're dodging her stun. Fight in her face and empW into double dash away and she cant do anything. The hard part about Irelia is paying attention to things you're not used to, track her stacks, your own minions hp's and don't use empowered abilities when she's probably going to W. 
-</t>
-  </si>
-  <si>
     <t>op.gg</t>
   </si>
   <si>
@@ -167,17 +127,9 @@
     <t>https://na.op.gg/summoner/userName=3in1warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">If he E's you can dash away and if he jumps on you then you can use your 2nd dash past him and all in if you're level 6 or if he's chunked out. Buy tabi. Abuse empowered Q.
-</t>
-  </si>
-  <si>
     <t>Jayce</t>
   </si>
   <si>
-    <t xml:space="preserve"> Buy tabi and use movespeed advantage to try and fight him at 6 without using dashes, if you're full hp. If he hits you away near minions then you can double dash to chase. Walk up to your minions and step back to try and bait his EQ.
-</t>
-  </si>
-  <si>
     <t>Kennen</t>
   </si>
   <si>
@@ -199,25 +151,13 @@
     <t>https://discord.gg/dDv8che</t>
   </si>
   <si>
-    <t xml:space="preserve">Never fight him with his W up. Don't demount him unless you can double dash away or empW and kill him. </t>
-  </si>
-  <si>
     <t>Malphite</t>
   </si>
   <si>
-    <t>You should get the push on him and outsustain him with Q early. Malphite’s burst and gank setup is deceptively good post 6, don’t get too comfortable. If you rush Tiamat Malphite will hit Sunfire Cape before you hit Cleaver so you might have to let him push until you get it.</t>
-  </si>
-  <si>
     <t>Maokai</t>
   </si>
   <si>
-    <t>He has more base damage than you think, hard to kill him in lane, but go conqueror and rush black cleaver and try to either freeze and zone or perma push and roam. If he's not behind in mid game he will win extended fights.</t>
-  </si>
-  <si>
     <t>Mordekaiser</t>
-  </si>
-  <si>
-    <t>You are stronger than morde in lane if you play it carefully. Lead trades with empowered w to counter his shield, or you can lead with q into empowered w if morde is slow to react. If you get hit by e and morde has ult you are most likely dead. Try not to ult before he ults because he steals your bonus hp. Learn his q range and try to bait it out</t>
   </si>
   <si>
     <t>Nasus</t>
@@ -245,10 +185,6 @@
     <t>Pantheon</t>
   </si>
   <si>
-    <t xml:space="preserve">You win at 6 really hard. Use your pots early and trade with your Q, his Q cd is short than yours though. Dash past him when he E's. Be aware that he can stun you and disengage out of your dash range if he doesn't hit you but most Pantheons will hit you after stunning and you'll be able to catch them.
-</t>
-  </si>
-  <si>
     <t>Poppy</t>
   </si>
   <si>
@@ -258,10 +194,6 @@
     <t>Quinn</t>
   </si>
   <si>
-    <t xml:space="preserve">Rush tabi. If she E's you then you might have a window to flash on her, you might have to wait until 6 though. You can dash empQ her and then dash out but anything else won't work with her E up.
-</t>
-  </si>
-  <si>
     <t>Riven</t>
   </si>
   <si>
@@ -271,33 +203,21 @@
     <t>Ryze</t>
   </si>
   <si>
-    <t>If you have a lot of fury you can usually double dash onto him and trade with empowered w, ryze has to rush tear and can't immediately buy defensive items, so you have strong all in potential after a couple trades, especially at level 6. Try to learn his e spread range so you don't take free poke near your minions. Getting hit by just the e is fine, but the q will chunk you</t>
-  </si>
-  <si>
     <t>Shen</t>
   </si>
   <si>
-    <t xml:space="preserve">Play around his Q, you can even walk into his wave early if you need to. Your empW breaks his shield but you mostly want to use empQ and outsustain and push him. Don't W during his W, you can use your first dash to kite it out and 2nd dash to re-engage, you can also dash past him towards his tower and look to all-in when his W ends. </t>
-  </si>
-  <si>
     <t>Singed</t>
   </si>
   <si>
     <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
   </si>
   <si>
-    <t>Guard your wave on its way to lane level 1 to make sure he doesn't proxy. Don't be afraid some autos with him in his poison and use pots early.. Go W level 2, buffer your W on him when he goes to flip you.</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
     <t>description/bio</t>
   </si>
   <si>
-    <t>Try to predict when he will use e by looking at your minions' health, save at least one e to get out of his q, if he leads with it you can e behind him to trade. His w deals a lot of damage so stay out of it's aoe range or kill his shield so he can't reactivate it</t>
-  </si>
-  <si>
     <t>3in1warrior is a Challenger Toplaner in North America best known for his Renekton and Camille. He's been Challenger for the last 2 years and has been playing Renekton in high elo for 4 years. He plays in the North American Amateur scene and streams on twitch.</t>
   </si>
   <si>
@@ -313,9 +233,6 @@
     <t>After the site launches, any of this information can be changed.</t>
   </si>
   <si>
-    <t>He pokes you early, but you can trade back with e empowered q. Give up most casters but try to time your e q trades to kill them as well. Don't try to w him unless you know he doesn't have blind. If he uses it to poke you can look to take a heavier trade. at level 6 you can kill him if he mispositions, but keep in mind where he places shrooms.</t>
-  </si>
-  <si>
     <t>Once you have filled this out, please change sheets at the bottom.</t>
   </si>
   <si>
@@ -331,9 +248,6 @@
     <t>Metadata guide</t>
   </si>
   <si>
-    <t xml:space="preserve">You outsustain him. Rush Tabi. If you're going to get hit by his E you can buffer your empW into it, your empW also shield breaks him. You win all-ins from full hp at 6, don't fight him while too low. </t>
-  </si>
-  <si>
     <t>Vladimir</t>
   </si>
   <si>
@@ -347,9 +261,6 @@
   </si>
   <si>
     <t>Yorick</t>
-  </si>
-  <si>
-    <t>Don't get trapped in his cage without E. His maiden wins him fights unless you can burst him down. Dodge his E by E'ing into him and using empowered Q. His ghouls give you a bigger q heal, and you can dash away when his ghouls jump on you and kill them one by one</t>
   </si>
   <si>
     <t>Vayne</t>
@@ -359,16 +270,103 @@
 </t>
   </si>
   <si>
-    <t>If you dash right in front of him rather than on him then he has to move into you to hit his E and if your dash is already finished when he moves in then you can stun him. If he already has a mark on you then don't dash in. If his E is down or his Q and empAA are down then you can double dash in. Rush Mercs, you should be able to win with level 6 and Mercs if you can find a window to get on him and if he doesn't give you a window then you're probably getting to push.</t>
-  </si>
-  <si>
     <t>Start W Stay behind your melees level 1, if she trades aggressively with Q use aa W and kite back into your wave. EmpW auto wins you this lane you just need to make sure you're getting it off, try to buffer it on her before she cc's you. She can win all in at 6 from full hp, make sure you chunk her out a bit first.</t>
   </si>
   <si>
-    <t>Start Dshield. Farm with Q's and if he walks into your wave then trade back. Give up cs early and try to make it to level at least level 4 and a good buy. EmpW into aa Q E away or dash in aa Q empW then dash away should win you a trade hard if you haven't fallen behind in the lane.</t>
-  </si>
-  <si>
     <t>Start W and kite back level 1, careful of getting all-inned. Freeze vs Tryndamere, he can't do anything vs your empW. Just be careful of his all-ins, he wins from high hp.</t>
+  </si>
+  <si>
+    <t>You win at 6 really hard. Use your pots early and trade with your Q, his Q cd is shorter than yours though. Dash past him when he E's. Be aware that he can stun you and walk away without hitting you to disengage out of your dash range but most Pantheons will hit you after stunning and you'll be able to catch them.</t>
+  </si>
+  <si>
+    <t>Plan your fury to empW after double dashing to all in. Ryze has to rush tear and can't immediately buy defensive items so you have strong all in potential after chunking him out especially at level 6. Try to learn his e spread range so you don't take free poke near your minions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play around his Q, you can even walk past your wave into his if you need to. Your empW breaks his shield but you mostly want to use empQ and outsustain and push him. Don't W during his W, you can use your first dash to kite it out and 2nd dash to re-engage, you can also dash past him towards his tower and look to all-in when his W ends. </t>
+  </si>
+  <si>
+    <t>Try to predict when he will use E by looking at your minions' health. Save at least one dash to get out of his Q, if he leads with his Q you can dash behind him to trade. Your empW shield breaks his W. His W deals a lot of damage so stay out of it's aoe range or kill his shield so he can't reactivate it.</t>
+  </si>
+  <si>
+    <t>He pokes you early but you can trade back with E empQ. Give up most casters but try to time your EQ trades to kill them as well. Don't try to W him unless you know he doesn't have blind. If he uses it to poke you can look to take a heavier trade. At level 6 you can kill him if he mispositions but keep in mind where he places shrooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You outsustain him. Rush Tabi. If you're going to get hit by his E you can buffer your empW into it. Your empW also shield breaks him. You win all-ins from full hp at 6, his ult makes low hp fights better for him. </t>
+  </si>
+  <si>
+    <t>Don't get trapped in his cage without E. His maiden wins him fights unless you can burst him down. Dodge his E by dashing into him and using empowered Q. His ghouls give you a bigger Q heal. You can dash away when his ghouls jump on you and kill them one by one.</t>
+  </si>
+  <si>
+    <t>Guard your wave on its way to lane level 1 to make sure he doesn't proxy. Don't be afraid to trade some autos with him level 1 but be careful of him just turning around and leaving you in his poison. Go W level 2 if you didn't go W already level 1. Buffer your W on him when he goes to flip you.</t>
+  </si>
+  <si>
+    <t>Start Dshield. Farm with Q's and if he walks into your wave then trade back. Give up cs early and let the wave push into your tower if he pushes it while trading with his Q. EmpW into aa Q E away or dash in aa Q empW then dash away should win you a trade hard if you haven't fallent behind in the lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play super safe early and give cs. Trade with dash empQ dash out. If she uses her E then you might be able to just flash on her with empW and keep up with her flash with your dashes. At 6, especially if you have Tabi, you can look for all-ins a lot easier.
+</t>
+  </si>
+  <si>
+    <t>You are stronger than morde in lane if you play it carefully. Lead trades with empW to counter his shield, or you can lead with Q into empW if Morde is slow to react. If you get hit by his E and he has ult you are most likely dead. Try not to ult before he ults because he steals your bonus hp. Learn his Q range and try to bait it out or dash behind him to try and dodge it.</t>
+  </si>
+  <si>
+    <t>Maokai is a harder matchup than people think. It's hard to find kills on him because he can disengage with his Q so easily. Try to abuse your wave control to for other things than just fighting him like denying cs, setting up ganks, roaming, getting vision, getting better bases or tp plays. Maokai can win fights at 1 item if he's not behind.</t>
+  </si>
+  <si>
+    <t>You should get the push on him and outsustain him with Q early. Malphite’s burst and gank setup is deceptively good post 6, don’t get too comfortable. Malphite might hit his 1 item spike before you, especially if you go tiamat, be careful at this point until you get your item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot of people struggle with this matchup if you can dodge his Q's early and play around his demount and W well then you can crush Kled. Never fight him with his W up and don't demount him unless you can dash away or empW and kill him. </t>
+  </si>
+  <si>
+    <t>Kennen is a really tricky matchup. Give cs early and let him push. Quick trade with dash empQ dash out. Click on him and track his empowered auto in his buff bar in the top left, wait for him to use his empAA on the wave before waling up. If two of his Q, empAA or E are down then you can double dash on him. You should be able to win with level 6 and Mercs if you can find a window to get on him and if he doesn't give you a window then you're probably getting to priority. A specific tip that might come in handy is you might want to dash in front of Kenne rather than on top of him if he's going to Q/empAA W E you to stun you that way he has to move into you to hit E and stun you but he can't move into you until he's done casting Q/empAA and W and by then you're already stunning him yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quick trade with dash empQ and dash out. Buy tabi and at 6 use the movespeed advantage to try and find windows to fight him without using dashes so you can chase with double dash after he hits you away. Also if you empW him while he hits you away then you should be able to catch him with one dash. Walk up to your minions and step back to try and bait his EQ.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When he uses E's you can dash away and if he jumps on you then you can use your 2nd dash after he stuns you to try and trade back or if you're able to all in then use your 2nd dash past him before he stuns you. Buy Tabi. Abuse empQ you can outsustain him and outtrade him if you play around your Q cd and fury well. It's not very useful but if you time your W with his E ending the 2nd/3rd hit of W can hit him and stun him even if the first was blocked.
+</t>
+  </si>
+  <si>
+    <t>Try to outplay her early and snowball. Try to outplay her E where it's safe to, if she ever hits E you should double dash and get out of tether range. Try really hard to play agressive and outplay her tenticles and E earlygame and you can snowball the matchup. Even if you are really ahead you cannot fight her in her ult unless you are oneshotting her. She can ignore your stun with her ult cast CC imunity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start trades without dashing unless you're dodging her stun. Fight in her face and empW into double dash away and she cant do anything. The hard part about Irelia is paying attention to things you're not used to, track her stacks, your own minions hp's and don't use empowered abilities when she's probably going to W. She wins hard from any decent hp if she starts with stacks or can get them quickly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaQ trade in the wave, you have to aa Q fast to get it off before you get silenced. You can also activate W while your Q animation is going before you get silenced. Avoid using W or empowered Q into his W. Use R and all in from full hp if you need to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Start Dshield. Don't let him hit you with his passive AA. Farm with Q and give up a lot of ranged creeps. You can outplay his barrels with E aaQ but aa the barrel instead of him and it's also worth it most of the time to unempowered W his barrels to kill them. Despite what people think GP doesn't actually scale that hard, his winrate drops off harder and harder as the game goes on so don't tilt!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't take too much free damage level 1-2. Take short trades with Q, you win with empQ. You don't need to use W unless she does, just abuse empQ. You can bait her W by activating yours and not using it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should beatup Mundo with your Q sustain and push if you don't take free cleavers. His all-in is actually kind of scary early game with his Q spam, grasp and E steroid. Get executioners for his level 6 and careful of his all-in. It's hard to punish Mundo in lane if he just sits back and farm swith cleavers, use your priority to get advantages elsewhere and take better bases. Deny cannon minions by blocking his cleavers with your body. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outplay his Q with your dash or good movement, if it hits you then you can't trade. If he leads with his E you should be able to win the trade if you have fury. End trades with empW and dash away so he can't pull you. 
+</t>
+  </si>
+  <si>
+    <t>You should be able to get push level 1 and outsustain him with empQ. You win by dodging his Q or empWing him at the same time you get hit by his Q and then all-inning him. After level 4 and especially at level 6 you can look to freeze and force Cho into a long lane for a longer all-in, if he just farms with Q then he should miss cs but you can also stand between him and the wave to zone him off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want to fight for push level 1 and trade with Q but you have to be careful because she could've started any ability. Stay away from the walls incase she started E, if she W's you try to Q after her W hits, kite back from her hard incase she started Q, you don't want her to get an extended trade onto you with her Q and her shield, use your Q max range without autoing her and then kite her out. You can use a pot level 1 and your 2nd Q should be empowered. Your empW breaks her shield and you can cancel her E if you stun her after it hits a wall. Try to dive her with your jungler whenever you can, you can even dive her from full hp a lot of the time. You can setup your own dives by buring ult or flash super early while pushing into her and then when your cd's are back up you crash the wave and dive her since she's chunked out now.
+</t>
+  </si>
+  <si>
+    <t>The closer she is to you when she hits Q the farther back she has to walk to get her empowered auto and the easier it is to kite out her empAA. Trade back with her level 1 when she Q aa's you but don't let her get a 2nd empowered auto. After she Q's twice she should be low on energy and you can contest the wave, pop a pot if you need to. You outsustain her and you win fights from lower hp's while her all-in from full hp's in better. Bait out her shroud with your E Q aa trade and then dash out of her shroud and fight back with W if she chases you, you can kite for another Q as well if she's looking for an all-in. Use R and all in while you're both full hp with empW and then empQ, you should get her ult and/or chunk her out and then you win.</t>
+  </si>
+  <si>
+    <t>Aatrox is a skill heavy matchup which is pretty 50/50. Level 1 if he uses his passive on the wave you can walk up and trade but careful of his Q2 sweetspot, if he uses his Q on the wave lvl 1 then you have to wait it out and then you can try to get the push while it's on cd. Ideally you want to dash in past the sweetspot when he uses his first Q and trade inside his Q2 then dash out before his Q3 or before his W pulls you in. Aatrox wins the all in from high hp, be careful of getting caught by his W. Aatrox can hold his Q's for 4s before they expire, the same amount of time as your 2nd dash. You get your damage off first so you should win if you're both chunked out. You can win hard at 6 with Executioners if you play it well.</t>
   </si>
 </sst>
 </file>
@@ -798,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -841,103 +839,103 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1938,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1969,331 +1967,331 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="C6" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="5"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
+      <c r="C10" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B24" s="4">
         <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
+      <c r="C25" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
@@ -2304,79 +2302,79 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4">
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4">
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
